--- a/data/은행지수.xlsx
+++ b/data/은행지수.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4338"/>
+  <dimension ref="A1:C4339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48112,74 +48112,69 @@
       <c r="A4334" s="2" t="n">
         <v>45488</v>
       </c>
-      <c r="B4334" t="inlineStr">
-        <is>
-          <t>855.73</t>
-        </is>
-      </c>
-      <c r="C4334" t="inlineStr">
-        <is>
-          <t>-1.22</t>
-        </is>
+      <c r="B4334" t="n">
+        <v>855.73</v>
+      </c>
+      <c r="C4334" t="n">
+        <v>-1.22</v>
       </c>
     </row>
     <row r="4335">
       <c r="A4335" s="2" t="n">
         <v>45489</v>
       </c>
-      <c r="B4335" t="inlineStr">
-        <is>
-          <t>854.59</t>
-        </is>
-      </c>
-      <c r="C4335" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
+      <c r="B4335" t="n">
+        <v>854.59</v>
+      </c>
+      <c r="C4335" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="4336">
       <c r="A4336" s="2" t="n">
         <v>45490</v>
       </c>
-      <c r="B4336" t="inlineStr">
-        <is>
-          <t>860.13</t>
-        </is>
-      </c>
-      <c r="C4336" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
+      <c r="B4336" t="n">
+        <v>860.13</v>
+      </c>
+      <c r="C4336" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="4337">
       <c r="A4337" s="2" t="n">
         <v>45491</v>
       </c>
-      <c r="B4337" t="inlineStr">
-        <is>
-          <t>863.34</t>
-        </is>
-      </c>
-      <c r="C4337" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
+      <c r="B4337" t="n">
+        <v>863.34</v>
+      </c>
+      <c r="C4337" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="4338">
       <c r="A4338" s="2" t="n">
         <v>45492</v>
       </c>
-      <c r="B4338" t="inlineStr">
+      <c r="B4338" t="n">
+        <v>863.05</v>
+      </c>
+      <c r="C4338" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B4339" t="inlineStr">
         <is>
-          <t>863.05</t>
+          <t>875.01</t>
         </is>
       </c>
-      <c r="C4338" t="inlineStr">
+      <c r="C4339" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>1.39</t>
         </is>
       </c>
     </row>

--- a/data/은행지수.xlsx
+++ b/data/은행지수.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4339"/>
+  <dimension ref="A1:C4504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48167,14 +48167,2485 @@
       <c r="A4339" s="2" t="n">
         <v>45495</v>
       </c>
-      <c r="B4339" t="inlineStr">
+      <c r="B4339" t="n">
+        <v>875.01</v>
+      </c>
+      <c r="C4339" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B4340" t="inlineStr">
         <is>
-          <t>875.01</t>
+          <t>875.37</t>
         </is>
       </c>
-      <c r="C4339" t="inlineStr">
+      <c r="C4340" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B4341" t="inlineStr">
+        <is>
+          <t>859.06</t>
+        </is>
+      </c>
+      <c r="C4341" t="inlineStr">
+        <is>
+          <t>-1.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B4342" t="inlineStr">
+        <is>
+          <t>855.62</t>
+        </is>
+      </c>
+      <c r="C4342" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B4343" t="inlineStr">
+        <is>
+          <t>898.62</t>
+        </is>
+      </c>
+      <c r="C4343" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B4344" t="inlineStr">
+        <is>
+          <t>919.55</t>
+        </is>
+      </c>
+      <c r="C4344" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B4345" t="inlineStr">
+        <is>
+          <t>905.40</t>
+        </is>
+      </c>
+      <c r="C4345" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B4346" t="inlineStr">
+        <is>
+          <t>907.18</t>
+        </is>
+      </c>
+      <c r="C4346" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B4347" t="inlineStr">
+        <is>
+          <t>912.52</t>
+        </is>
+      </c>
+      <c r="C4347" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B4348" t="inlineStr">
+        <is>
+          <t>871.82</t>
+        </is>
+      </c>
+      <c r="C4348" t="inlineStr">
+        <is>
+          <t>-4.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B4349" t="inlineStr">
+        <is>
+          <t>803.64</t>
+        </is>
+      </c>
+      <c r="C4349" t="inlineStr">
+        <is>
+          <t>-7.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B4350" t="inlineStr">
+        <is>
+          <t>819.48</t>
+        </is>
+      </c>
+      <c r="C4350" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B4351" t="inlineStr">
+        <is>
+          <t>841.37</t>
+        </is>
+      </c>
+      <c r="C4351" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B4352" t="inlineStr">
+        <is>
+          <t>848.35</t>
+        </is>
+      </c>
+      <c r="C4352" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B4353" t="inlineStr">
+        <is>
+          <t>849.88</t>
+        </is>
+      </c>
+      <c r="C4353" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B4354" t="inlineStr">
+        <is>
+          <t>854.35</t>
+        </is>
+      </c>
+      <c r="C4354" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B4355" t="inlineStr">
+        <is>
+          <t>867.04</t>
+        </is>
+      </c>
+      <c r="C4355" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B4356" t="inlineStr">
+        <is>
+          <t>868.85</t>
+        </is>
+      </c>
+      <c r="C4356" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B4357" t="inlineStr">
+        <is>
+          <t>870.56</t>
+        </is>
+      </c>
+      <c r="C4357" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B4358" t="inlineStr">
+        <is>
+          <t>894.82</t>
+        </is>
+      </c>
+      <c r="C4358" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B4359" t="inlineStr">
+        <is>
+          <t>915.78</t>
+        </is>
+      </c>
+      <c r="C4359" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B4360" t="inlineStr">
+        <is>
+          <t>913.47</t>
+        </is>
+      </c>
+      <c r="C4360" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B4361" t="inlineStr">
+        <is>
+          <t>917.77</t>
+        </is>
+      </c>
+      <c r="C4361" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B4362" t="inlineStr">
+        <is>
+          <t>923.95</t>
+        </is>
+      </c>
+      <c r="C4362" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B4363" t="inlineStr">
+        <is>
+          <t>941.74</t>
+        </is>
+      </c>
+      <c r="C4363" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B4364" t="inlineStr">
+        <is>
+          <t>922.90</t>
+        </is>
+      </c>
+      <c r="C4364" t="inlineStr">
+        <is>
+          <t>-2.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B4365" t="inlineStr">
+        <is>
+          <t>897.69</t>
+        </is>
+      </c>
+      <c r="C4365" t="inlineStr">
+        <is>
+          <t>-2.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B4366" t="inlineStr">
+        <is>
+          <t>897.02</t>
+        </is>
+      </c>
+      <c r="C4366" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B4367" t="inlineStr">
+        <is>
+          <t>887.12</t>
+        </is>
+      </c>
+      <c r="C4367" t="inlineStr">
+        <is>
+          <t>-1.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B4368" t="inlineStr">
+        <is>
+          <t>896.64</t>
+        </is>
+      </c>
+      <c r="C4368" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B4369" t="inlineStr">
+        <is>
+          <t>899.55</t>
+        </is>
+      </c>
+      <c r="C4369" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B4370" t="inlineStr">
+        <is>
+          <t>874.23</t>
+        </is>
+      </c>
+      <c r="C4370" t="inlineStr">
+        <is>
+          <t>-2.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B4371" t="inlineStr">
+        <is>
+          <t>881.47</t>
+        </is>
+      </c>
+      <c r="C4371" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B4372" t="inlineStr">
+        <is>
+          <t>879.58</t>
+        </is>
+      </c>
+      <c r="C4372" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B4373" t="inlineStr">
+        <is>
+          <t>866.10</t>
+        </is>
+      </c>
+      <c r="C4373" t="inlineStr">
+        <is>
+          <t>-1.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B4374" t="inlineStr">
+        <is>
+          <t>870.36</t>
+        </is>
+      </c>
+      <c r="C4374" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B4375" t="inlineStr">
+        <is>
+          <t>825.22</t>
+        </is>
+      </c>
+      <c r="C4375" t="inlineStr">
+        <is>
+          <t>-5.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B4376" t="inlineStr">
+        <is>
+          <t>837.68</t>
+        </is>
+      </c>
+      <c r="C4376" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B4377" t="inlineStr">
+        <is>
+          <t>866.13</t>
+        </is>
+      </c>
+      <c r="C4377" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B4378" t="inlineStr">
+        <is>
+          <t>880.60</t>
+        </is>
+      </c>
+      <c r="C4378" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B4379" t="inlineStr">
+        <is>
+          <t>874.13</t>
+        </is>
+      </c>
+      <c r="C4379" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B4380" t="inlineStr">
+        <is>
+          <t>876.96</t>
+        </is>
+      </c>
+      <c r="C4380" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B4381" t="inlineStr">
+        <is>
+          <t>871.93</t>
+        </is>
+      </c>
+      <c r="C4381" t="inlineStr">
+        <is>
+          <t>-0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B4382" t="inlineStr">
+        <is>
+          <t>840.91</t>
+        </is>
+      </c>
+      <c r="C4382" t="inlineStr">
+        <is>
+          <t>-3.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B4383" t="inlineStr">
+        <is>
+          <t>878.46</t>
+        </is>
+      </c>
+      <c r="C4383" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B4384" t="inlineStr">
+        <is>
+          <t>874.82</t>
+        </is>
+      </c>
+      <c r="C4384" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B4385" t="inlineStr">
+        <is>
+          <t>854.72</t>
+        </is>
+      </c>
+      <c r="C4385" t="inlineStr">
+        <is>
+          <t>-2.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="B4386" t="inlineStr">
+        <is>
+          <t>857.59</t>
+        </is>
+      </c>
+      <c r="C4386" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B4387" t="inlineStr">
+        <is>
+          <t>860.55</t>
+        </is>
+      </c>
+      <c r="C4387" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B4388" t="inlineStr">
+        <is>
+          <t>882.53</t>
+        </is>
+      </c>
+      <c r="C4388" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B4389" t="inlineStr">
+        <is>
+          <t>883.71</t>
+        </is>
+      </c>
+      <c r="C4389" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B4390" t="inlineStr">
+        <is>
+          <t>893.30</t>
+        </is>
+      </c>
+      <c r="C4390" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B4391" t="inlineStr">
+        <is>
+          <t>898.71</t>
+        </is>
+      </c>
+      <c r="C4391" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B4392" t="inlineStr">
+        <is>
+          <t>928.88</t>
+        </is>
+      </c>
+      <c r="C4392" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B4393" t="inlineStr">
+        <is>
+          <t>927.31</t>
+        </is>
+      </c>
+      <c r="C4393" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B4394" t="inlineStr">
+        <is>
+          <t>925.92</t>
+        </is>
+      </c>
+      <c r="C4394" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B4395" t="inlineStr">
+        <is>
+          <t>924.28</t>
+        </is>
+      </c>
+      <c r="C4395" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B4396" t="inlineStr">
+        <is>
+          <t>925.87</t>
+        </is>
+      </c>
+      <c r="C4396" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B4397" t="inlineStr">
+        <is>
+          <t>918.24</t>
+        </is>
+      </c>
+      <c r="C4397" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B4398" t="inlineStr">
+        <is>
+          <t>918.99</t>
+        </is>
+      </c>
+      <c r="C4398" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4399">
+      <c r="A4399" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B4399" t="inlineStr">
+        <is>
+          <t>918.32</t>
+        </is>
+      </c>
+      <c r="C4399" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4400">
+      <c r="A4400" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B4400" t="inlineStr">
+        <is>
+          <t>915.49</t>
+        </is>
+      </c>
+      <c r="C4400" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4401">
+      <c r="A4401" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B4401" t="inlineStr">
+        <is>
+          <t>951.89</t>
+        </is>
+      </c>
+      <c r="C4401" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="4402">
+      <c r="A4402" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B4402" t="inlineStr">
+        <is>
+          <t>925.11</t>
+        </is>
+      </c>
+      <c r="C4402" t="inlineStr">
+        <is>
+          <t>-2.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="4403">
+      <c r="A4403" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B4403" t="inlineStr">
+        <is>
+          <t>925.54</t>
+        </is>
+      </c>
+      <c r="C4403" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4404">
+      <c r="A4404" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B4404" t="inlineStr">
+        <is>
+          <t>904.11</t>
+        </is>
+      </c>
+      <c r="C4404" t="inlineStr">
+        <is>
+          <t>-2.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4405">
+      <c r="A4405" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B4405" t="inlineStr">
+        <is>
+          <t>871.71</t>
+        </is>
+      </c>
+      <c r="C4405" t="inlineStr">
+        <is>
+          <t>-3.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4406">
+      <c r="A4406" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B4406" t="inlineStr">
+        <is>
+          <t>891.78</t>
+        </is>
+      </c>
+      <c r="C4406" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4407">
+      <c r="A4407" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B4407" t="inlineStr">
+        <is>
+          <t>891.69</t>
+        </is>
+      </c>
+      <c r="C4407" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4408">
+      <c r="A4408" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B4408" t="inlineStr">
+        <is>
+          <t>892.92</t>
+        </is>
+      </c>
+      <c r="C4408" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4409">
+      <c r="A4409" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B4409" t="inlineStr">
+        <is>
+          <t>914.44</t>
+        </is>
+      </c>
+      <c r="C4409" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4410">
+      <c r="A4410" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B4410" t="inlineStr">
+        <is>
+          <t>913.69</t>
+        </is>
+      </c>
+      <c r="C4410" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4411">
+      <c r="A4411" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B4411" t="inlineStr">
+        <is>
+          <t>910.19</t>
+        </is>
+      </c>
+      <c r="C4411" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4412">
+      <c r="A4412" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B4412" t="inlineStr">
+        <is>
+          <t>904.39</t>
+        </is>
+      </c>
+      <c r="C4412" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="4413">
+      <c r="A4413" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B4413" t="inlineStr">
+        <is>
+          <t>898.53</t>
+        </is>
+      </c>
+      <c r="C4413" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="4414">
+      <c r="A4414" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B4414" t="inlineStr">
+        <is>
+          <t>891.18</t>
+        </is>
+      </c>
+      <c r="C4414" t="inlineStr">
+        <is>
+          <t>-0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="4415">
+      <c r="A4415" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B4415" t="inlineStr">
+        <is>
+          <t>884.95</t>
+        </is>
+      </c>
+      <c r="C4415" t="inlineStr">
+        <is>
+          <t>-0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="4416">
+      <c r="A4416" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B4416" t="inlineStr">
+        <is>
+          <t>874.49</t>
+        </is>
+      </c>
+      <c r="C4416" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4417">
+      <c r="A4417" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B4417" t="inlineStr">
+        <is>
+          <t>885.73</t>
+        </is>
+      </c>
+      <c r="C4417" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4418">
+      <c r="A4418" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B4418" t="inlineStr">
+        <is>
+          <t>889.07</t>
+        </is>
+      </c>
+      <c r="C4418" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4419">
+      <c r="A4419" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B4419" t="inlineStr">
+        <is>
+          <t>912.92</t>
+        </is>
+      </c>
+      <c r="C4419" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="4420">
+      <c r="A4420" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B4420" t="inlineStr">
+        <is>
+          <t>919.32</t>
+        </is>
+      </c>
+      <c r="C4420" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B4421" t="inlineStr">
+        <is>
+          <t>925.88</t>
+        </is>
+      </c>
+      <c r="C4421" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="4422">
+      <c r="A4422" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B4422" t="inlineStr">
+        <is>
+          <t>929.87</t>
+        </is>
+      </c>
+      <c r="C4422" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4423">
+      <c r="A4423" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B4423" t="inlineStr">
+        <is>
+          <t>915.76</t>
+        </is>
+      </c>
+      <c r="C4423" t="inlineStr">
+        <is>
+          <t>-1.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4424">
+      <c r="A4424" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B4424" t="inlineStr">
+        <is>
+          <t>936.47</t>
+        </is>
+      </c>
+      <c r="C4424" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4425">
+      <c r="A4425" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B4425" t="inlineStr">
+        <is>
+          <t>933.78</t>
+        </is>
+      </c>
+      <c r="C4425" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4426">
+      <c r="A4426" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B4426" t="inlineStr">
+        <is>
+          <t>921.46</t>
+        </is>
+      </c>
+      <c r="C4426" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4427">
+      <c r="A4427" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B4427" t="inlineStr">
+        <is>
+          <t>935.79</t>
+        </is>
+      </c>
+      <c r="C4427" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4428">
+      <c r="A4428" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B4428" t="inlineStr">
+        <is>
+          <t>969.26</t>
+        </is>
+      </c>
+      <c r="C4428" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4429">
+      <c r="A4429" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B4429" t="inlineStr">
+        <is>
+          <t>927.31</t>
+        </is>
+      </c>
+      <c r="C4429" t="inlineStr">
+        <is>
+          <t>-4.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4430">
+      <c r="A4430" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B4430" t="inlineStr">
+        <is>
+          <t>875.09</t>
+        </is>
+      </c>
+      <c r="C4430" t="inlineStr">
+        <is>
+          <t>-5.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="4431">
+      <c r="A4431" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B4431" t="inlineStr">
+        <is>
+          <t>888.67</t>
+        </is>
+      </c>
+      <c r="C4431" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4432">
+      <c r="A4432" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B4432" t="inlineStr">
+        <is>
+          <t>855.80</t>
+        </is>
+      </c>
+      <c r="C4432" t="inlineStr">
+        <is>
+          <t>-3.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="4433">
+      <c r="A4433" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B4433" t="inlineStr">
+        <is>
+          <t>858.82</t>
+        </is>
+      </c>
+      <c r="C4433" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4434">
+      <c r="A4434" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B4434" t="inlineStr">
+        <is>
+          <t>878.12</t>
+        </is>
+      </c>
+      <c r="C4434" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4435">
+      <c r="A4435" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B4435" t="inlineStr">
+        <is>
+          <t>884.02</t>
+        </is>
+      </c>
+      <c r="C4435" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="4436">
+      <c r="A4436" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B4436" t="inlineStr">
+        <is>
+          <t>879.68</t>
+        </is>
+      </c>
+      <c r="C4436" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4437">
+      <c r="A4437" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B4437" t="inlineStr">
+        <is>
+          <t>871.50</t>
+        </is>
+      </c>
+      <c r="C4437" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="4438">
+      <c r="A4438" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B4438" t="inlineStr">
+        <is>
+          <t>856.08</t>
+        </is>
+      </c>
+      <c r="C4438" t="inlineStr">
+        <is>
+          <t>-1.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="4439">
+      <c r="A4439" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B4439" t="inlineStr">
+        <is>
+          <t>876.93</t>
+        </is>
+      </c>
+      <c r="C4439" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B4440" t="inlineStr">
+        <is>
+          <t>860.16</t>
+        </is>
+      </c>
+      <c r="C4440" t="inlineStr">
+        <is>
+          <t>-1.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B4441" t="inlineStr">
+        <is>
+          <t>848.13</t>
+        </is>
+      </c>
+      <c r="C4441" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B4442" t="inlineStr">
+        <is>
+          <t>865.29</t>
+        </is>
+      </c>
+      <c r="C4442" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B4443" t="inlineStr">
+        <is>
+          <t>864.52</t>
+        </is>
+      </c>
+      <c r="C4443" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B4444" t="inlineStr">
+        <is>
+          <t>855.76</t>
+        </is>
+      </c>
+      <c r="C4444" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B4445" t="inlineStr">
+        <is>
+          <t>846.25</t>
+        </is>
+      </c>
+      <c r="C4445" t="inlineStr">
+        <is>
+          <t>-1.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B4446" t="inlineStr">
+        <is>
+          <t>833.96</t>
+        </is>
+      </c>
+      <c r="C4446" t="inlineStr">
+        <is>
+          <t>-1.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B4447" t="inlineStr">
+        <is>
+          <t>833.88</t>
+        </is>
+      </c>
+      <c r="C4447" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B4448" t="inlineStr">
+        <is>
+          <t>838.25</t>
+        </is>
+      </c>
+      <c r="C4448" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B4449" t="inlineStr">
+        <is>
+          <t>849.96</t>
+        </is>
+      </c>
+      <c r="C4449" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B4450" t="inlineStr">
+        <is>
+          <t>849.11</t>
+        </is>
+      </c>
+      <c r="C4450" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B4451" t="inlineStr">
+        <is>
+          <t>850.29</t>
+        </is>
+      </c>
+      <c r="C4451" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B4452" t="inlineStr">
+        <is>
+          <t>856.16</t>
+        </is>
+      </c>
+      <c r="C4452" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B4453" t="inlineStr">
+        <is>
+          <t>862.01</t>
+        </is>
+      </c>
+      <c r="C4453" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B4454" t="inlineStr">
+        <is>
+          <t>867.26</t>
+        </is>
+      </c>
+      <c r="C4454" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B4455" t="inlineStr">
+        <is>
+          <t>863.90</t>
+        </is>
+      </c>
+      <c r="C4455" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B4456" t="inlineStr">
+        <is>
+          <t>870.40</t>
+        </is>
+      </c>
+      <c r="C4456" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B4457" t="inlineStr">
+        <is>
+          <t>874.18</t>
+        </is>
+      </c>
+      <c r="C4457" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B4458" t="inlineStr">
+        <is>
+          <t>862.05</t>
+        </is>
+      </c>
+      <c r="C4458" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B4459" t="inlineStr">
+        <is>
+          <t>865.89</t>
+        </is>
+      </c>
+      <c r="C4459" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B4460" t="inlineStr">
+        <is>
+          <t>871.88</t>
+        </is>
+      </c>
+      <c r="C4460" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B4461" t="inlineStr">
+        <is>
+          <t>879.14</t>
+        </is>
+      </c>
+      <c r="C4461" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B4462" t="inlineStr">
+        <is>
+          <t>877.33</t>
+        </is>
+      </c>
+      <c r="C4462" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B4463" t="inlineStr">
+        <is>
+          <t>877.66</t>
+        </is>
+      </c>
+      <c r="C4463" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B4464" t="inlineStr">
+        <is>
+          <t>899.26</t>
+        </is>
+      </c>
+      <c r="C4464" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B4465" t="inlineStr">
+        <is>
+          <t>880.17</t>
+        </is>
+      </c>
+      <c r="C4465" t="inlineStr">
+        <is>
+          <t>-2.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B4466" t="inlineStr">
+        <is>
+          <t>894.99</t>
+        </is>
+      </c>
+      <c r="C4466" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B4467" t="inlineStr">
+        <is>
+          <t>901.69</t>
+        </is>
+      </c>
+      <c r="C4467" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="4468">
+      <c r="A4468" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B4468" t="inlineStr">
+        <is>
+          <t>887.43</t>
+        </is>
+      </c>
+      <c r="C4468" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B4469" t="inlineStr">
+        <is>
+          <t>881.90</t>
+        </is>
+      </c>
+      <c r="C4469" t="inlineStr">
+        <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="4470">
+      <c r="A4470" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B4470" t="inlineStr">
+        <is>
+          <t>885.05</t>
+        </is>
+      </c>
+      <c r="C4470" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B4471" t="inlineStr">
+        <is>
+          <t>882.38</t>
+        </is>
+      </c>
+      <c r="C4471" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4472">
+      <c r="A4472" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B4472" t="inlineStr">
+        <is>
+          <t>881.66</t>
+        </is>
+      </c>
+      <c r="C4472" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B4473" t="inlineStr">
+        <is>
+          <t>877.78</t>
+        </is>
+      </c>
+      <c r="C4473" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4474">
+      <c r="A4474" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B4474" t="inlineStr">
+        <is>
+          <t>878.94</t>
+        </is>
+      </c>
+      <c r="C4474" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B4475" t="inlineStr">
+        <is>
+          <t>885.71</t>
+        </is>
+      </c>
+      <c r="C4475" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="4476">
+      <c r="A4476" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B4476" t="inlineStr">
+        <is>
+          <t>891.11</t>
+        </is>
+      </c>
+      <c r="C4476" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B4477" t="inlineStr">
+        <is>
+          <t>895.45</t>
+        </is>
+      </c>
+      <c r="C4477" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4478">
+      <c r="A4478" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B4478" t="inlineStr">
+        <is>
+          <t>894.34</t>
+        </is>
+      </c>
+      <c r="C4478" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B4479" t="inlineStr">
+        <is>
+          <t>893.50</t>
+        </is>
+      </c>
+      <c r="C4479" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4480">
+      <c r="A4480" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B4480" t="inlineStr">
+        <is>
+          <t>893.60</t>
+        </is>
+      </c>
+      <c r="C4480" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4481">
+      <c r="A4481" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B4481" t="inlineStr">
+        <is>
+          <t>885.49</t>
+        </is>
+      </c>
+      <c r="C4481" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="4482">
+      <c r="A4482" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B4482" t="inlineStr">
+        <is>
+          <t>896.53</t>
+        </is>
+      </c>
+      <c r="C4482" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4483">
+      <c r="A4483" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B4483" t="inlineStr">
+        <is>
+          <t>887.93</t>
+        </is>
+      </c>
+      <c r="C4483" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="4484">
+      <c r="A4484" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B4484" t="inlineStr">
+        <is>
+          <t>863.27</t>
+        </is>
+      </c>
+      <c r="C4484" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="4485">
+      <c r="A4485" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B4485" t="inlineStr">
+        <is>
+          <t>850.25</t>
+        </is>
+      </c>
+      <c r="C4485" t="inlineStr">
+        <is>
+          <t>-1.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4486">
+      <c r="A4486" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B4486" t="inlineStr">
+        <is>
+          <t>834.30</t>
+        </is>
+      </c>
+      <c r="C4486" t="inlineStr">
+        <is>
+          <t>-1.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B4487" t="inlineStr">
+        <is>
+          <t>853.36</t>
+        </is>
+      </c>
+      <c r="C4487" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B4488" t="inlineStr">
+        <is>
+          <t>839.10</t>
+        </is>
+      </c>
+      <c r="C4488" t="inlineStr">
+        <is>
+          <t>-1.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="4489">
+      <c r="A4489" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B4489" t="inlineStr">
+        <is>
+          <t>847.17</t>
+        </is>
+      </c>
+      <c r="C4489" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B4490" t="inlineStr">
+        <is>
+          <t>837.26</t>
+        </is>
+      </c>
+      <c r="C4490" t="inlineStr">
+        <is>
+          <t>-1.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B4491" t="inlineStr">
+        <is>
+          <t>844.66</t>
+        </is>
+      </c>
+      <c r="C4491" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B4492" t="inlineStr">
+        <is>
+          <t>852.92</t>
+        </is>
+      </c>
+      <c r="C4492" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="B4493" t="inlineStr">
+        <is>
+          <t>849.04</t>
+        </is>
+      </c>
+      <c r="C4493" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B4494" t="inlineStr">
+        <is>
+          <t>864.99</t>
+        </is>
+      </c>
+      <c r="C4494" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B4495" t="inlineStr">
+        <is>
+          <t>866.79</t>
+        </is>
+      </c>
+      <c r="C4495" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B4496" t="inlineStr">
+        <is>
+          <t>877.30</t>
+        </is>
+      </c>
+      <c r="C4496" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B4497" t="inlineStr">
+        <is>
+          <t>878.75</t>
+        </is>
+      </c>
+      <c r="C4497" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B4498" t="inlineStr">
+        <is>
+          <t>877.52</t>
+        </is>
+      </c>
+      <c r="C4498" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B4499" t="inlineStr">
+        <is>
+          <t>883.37</t>
+        </is>
+      </c>
+      <c r="C4499" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B4500" t="inlineStr">
+        <is>
+          <t>885.71</t>
+        </is>
+      </c>
+      <c r="C4500" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B4501" t="inlineStr">
+        <is>
+          <t>879.14</t>
+        </is>
+      </c>
+      <c r="C4501" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B4502" t="inlineStr">
+        <is>
+          <t>870.35</t>
+        </is>
+      </c>
+      <c r="C4502" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B4503" t="inlineStr">
+        <is>
+          <t>861.24</t>
+        </is>
+      </c>
+      <c r="C4503" t="inlineStr">
+        <is>
+          <t>-1.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B4504" t="inlineStr">
+        <is>
+          <t>848.93</t>
+        </is>
+      </c>
+      <c r="C4504" t="inlineStr">
+        <is>
+          <t>-1.43</t>
         </is>
       </c>
     </row>
